--- a/Submission/SportsInviter/Data/Input/VenueDetails.xlsx
+++ b/Submission/SportsInviter/Data/Input/VenueDetails.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21727"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52E33306-7093-46BB-A0E2-B56606B020DE}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{543F6A59-90B3-4FA4-B0CE-FB59736D257F}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8325" yWindow="1995" windowWidth="12270" windowHeight="10515" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="70">
   <si>
     <t>Ground Name</t>
   </si>
@@ -219,6 +219,12 @@
   </si>
   <si>
     <t>Russell Creek G5 S or T</t>
+  </si>
+  <si>
+    <t>Country Code</t>
+  </si>
+  <si>
+    <t>us</t>
   </si>
 </sst>
 </file>
@@ -608,10 +614,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D29"/>
+  <dimension ref="A1:E29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A23" sqref="A23"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2:D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -619,10 +625,11 @@
     <col min="1" max="1" width="29.42578125" style="2" customWidth="1"/>
     <col min="2" max="2" width="9.140625" style="2"/>
     <col min="3" max="3" width="57.85546875" style="2" customWidth="1"/>
-    <col min="4" max="4" width="61.140625" customWidth="1"/>
+    <col min="4" max="4" width="13.28515625" customWidth="1"/>
+    <col min="5" max="5" width="44.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -632,11 +639,14 @@
       <c r="C1" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="E1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
@@ -646,11 +656,14 @@
       <c r="C2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" t="s">
+        <v>69</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
@@ -660,11 +673,14 @@
       <c r="C3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" t="s">
+        <v>69</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>8</v>
       </c>
@@ -674,11 +690,14 @@
       <c r="C4" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="D4" t="s">
+        <v>69</v>
+      </c>
+      <c r="E4" s="1" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>9</v>
       </c>
@@ -688,11 +707,14 @@
       <c r="C5" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="D5" t="s">
+        <v>69</v>
+      </c>
+      <c r="E5" s="1" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>11</v>
       </c>
@@ -702,11 +724,14 @@
       <c r="C6" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="D6" t="s">
+        <v>69</v>
+      </c>
+      <c r="E6" s="1" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>13</v>
       </c>
@@ -716,11 +741,14 @@
       <c r="C7" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="D7" t="s">
+        <v>69</v>
+      </c>
+      <c r="E7" s="1" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>15</v>
       </c>
@@ -730,11 +758,14 @@
       <c r="C8" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="D8" t="s">
+        <v>69</v>
+      </c>
+      <c r="E8" s="1" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>16</v>
       </c>
@@ -744,11 +775,14 @@
       <c r="C9" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="D9" t="s">
+        <v>69</v>
+      </c>
+      <c r="E9" s="1" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>17</v>
       </c>
@@ -758,11 +792,14 @@
       <c r="C10" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="D10" t="s">
+        <v>69</v>
+      </c>
+      <c r="E10" s="1" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>66</v>
       </c>
@@ -772,11 +809,14 @@
       <c r="C11" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D11" s="1" t="s">
+      <c r="D11" t="s">
+        <v>69</v>
+      </c>
+      <c r="E11" s="1" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>19</v>
       </c>
@@ -786,11 +826,14 @@
       <c r="C12" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D12" s="1" t="s">
+      <c r="D12" t="s">
+        <v>69</v>
+      </c>
+      <c r="E12" s="1" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>21</v>
       </c>
@@ -800,11 +843,14 @@
       <c r="C13" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D13" s="1" t="s">
+      <c r="D13" t="s">
+        <v>69</v>
+      </c>
+      <c r="E13" s="1" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>23</v>
       </c>
@@ -814,11 +860,14 @@
       <c r="C14" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="D14" s="1" t="s">
+      <c r="D14" t="s">
+        <v>69</v>
+      </c>
+      <c r="E14" s="1" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>25</v>
       </c>
@@ -828,11 +877,14 @@
       <c r="C15" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="D15" s="1" t="s">
+      <c r="D15" t="s">
+        <v>69</v>
+      </c>
+      <c r="E15" s="1" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>27</v>
       </c>
@@ -842,11 +894,14 @@
       <c r="C16" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="D16" s="1" t="s">
+      <c r="D16" t="s">
+        <v>69</v>
+      </c>
+      <c r="E16" s="1" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>28</v>
       </c>
@@ -856,11 +911,14 @@
       <c r="C17" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="D17" s="1" t="s">
+      <c r="D17" t="s">
+        <v>69</v>
+      </c>
+      <c r="E17" s="1" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>30</v>
       </c>
@@ -870,11 +928,14 @@
       <c r="C18" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="D18" s="1" t="s">
+      <c r="D18" t="s">
+        <v>69</v>
+      </c>
+      <c r="E18" s="1" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>31</v>
       </c>
@@ -884,11 +945,14 @@
       <c r="C19" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="D19" s="1" t="s">
+      <c r="D19" t="s">
+        <v>69</v>
+      </c>
+      <c r="E19" s="1" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>33</v>
       </c>
@@ -898,11 +962,14 @@
       <c r="C20" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="D20" s="1" t="s">
+      <c r="D20" t="s">
+        <v>69</v>
+      </c>
+      <c r="E20" s="1" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>34</v>
       </c>
@@ -912,11 +979,14 @@
       <c r="C21" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="D21" s="1" t="s">
+      <c r="D21" t="s">
+        <v>69</v>
+      </c>
+      <c r="E21" s="1" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>35</v>
       </c>
@@ -926,11 +996,14 @@
       <c r="C22" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="D22" s="1" t="s">
+      <c r="D22" t="s">
+        <v>69</v>
+      </c>
+      <c r="E22" s="1" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>36</v>
       </c>
@@ -940,11 +1013,14 @@
       <c r="C23" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="D23" s="1" t="s">
+      <c r="D23" t="s">
+        <v>69</v>
+      </c>
+      <c r="E23" s="1" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>67</v>
       </c>
@@ -954,11 +1030,14 @@
       <c r="C24" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="D24" s="1" t="s">
+      <c r="D24" t="s">
+        <v>69</v>
+      </c>
+      <c r="E24" s="1" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>37</v>
       </c>
@@ -968,11 +1047,14 @@
       <c r="C25" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="D25" s="1" t="s">
+      <c r="D25" t="s">
+        <v>69</v>
+      </c>
+      <c r="E25" s="1" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>38</v>
       </c>
@@ -982,11 +1064,14 @@
       <c r="C26" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="D26" s="1" t="s">
+      <c r="D26" t="s">
+        <v>69</v>
+      </c>
+      <c r="E26" s="1" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>39</v>
       </c>
@@ -996,11 +1081,14 @@
       <c r="C27" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="D27" s="1" t="s">
+      <c r="D27" t="s">
+        <v>69</v>
+      </c>
+      <c r="E27" s="1" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>41</v>
       </c>
@@ -1010,11 +1098,14 @@
       <c r="C28" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="D28" s="1" t="s">
+      <c r="D28" t="s">
+        <v>69</v>
+      </c>
+      <c r="E28" s="1" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
         <v>43</v>
       </c>
@@ -1024,40 +1115,43 @@
       <c r="C29" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="D29" s="1" t="s">
+      <c r="D29" t="s">
+        <v>69</v>
+      </c>
+      <c r="E29" s="1" t="s">
         <v>64</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D2" r:id="rId1" xr:uid="{5EDA0757-4A3C-46C0-ABB7-F8852D9DE124}"/>
-    <hyperlink ref="D3" r:id="rId2" xr:uid="{B3AAE01C-C272-45ED-BAA6-DDC4D33BED84}"/>
-    <hyperlink ref="D4" r:id="rId3" xr:uid="{7CA146F2-4D4B-486D-A63B-BDEF89510C06}"/>
-    <hyperlink ref="D16" r:id="rId4" xr:uid="{35D8DE4B-FD0D-4AD6-A1A1-14895D54664D}"/>
-    <hyperlink ref="D5" r:id="rId5" xr:uid="{10255793-2D3A-434E-A119-C6C8C320B22C}"/>
-    <hyperlink ref="D6" r:id="rId6" xr:uid="{0242B573-0B17-48BE-9FA3-40ADDB3B4D4C}"/>
-    <hyperlink ref="D7" r:id="rId7" xr:uid="{7F53B45B-9246-4533-BD67-80100FCB9703}"/>
-    <hyperlink ref="D8" r:id="rId8" xr:uid="{8668C052-7E4C-449A-9E12-CBF0B0BD2A34}"/>
-    <hyperlink ref="D9" r:id="rId9" xr:uid="{CCCF4893-EF8F-44A2-A57C-6B1B68394462}"/>
-    <hyperlink ref="D10" r:id="rId10" xr:uid="{777CD186-32AA-40D6-867F-C34705AC8C7D}"/>
-    <hyperlink ref="D12" r:id="rId11" xr:uid="{D7F5ADE8-6984-4513-9CA4-3FD1312FBC18}"/>
-    <hyperlink ref="D13" r:id="rId12" xr:uid="{E7F0E585-E18F-4AFE-AF5A-767CF01FBBE9}"/>
-    <hyperlink ref="D14" r:id="rId13" xr:uid="{9463C13A-5A5F-4965-BB15-4845102EB991}"/>
-    <hyperlink ref="D15" r:id="rId14" xr:uid="{B2290C3C-0ECF-4039-A7FD-FAE074C96130}"/>
-    <hyperlink ref="D17" r:id="rId15" xr:uid="{845CBCDB-57A5-4A96-B26F-02921B1182EC}"/>
-    <hyperlink ref="D18" r:id="rId16" xr:uid="{6DEF0B91-1D8A-4726-8BF6-69FDC3359BBA}"/>
-    <hyperlink ref="D19" r:id="rId17" xr:uid="{0A640D8F-3AFA-4EBC-8689-F177CA31C47E}"/>
-    <hyperlink ref="D20" r:id="rId18" xr:uid="{E8486996-9717-430D-A74C-D6689DC6AB5D}"/>
-    <hyperlink ref="D21" r:id="rId19" xr:uid="{AC9BB450-EB3F-40BE-903C-2C7BE5614257}"/>
-    <hyperlink ref="D22" r:id="rId20" xr:uid="{56AC765C-E1CF-4B24-AF97-9F31ECE8C69C}"/>
-    <hyperlink ref="D23" r:id="rId21" xr:uid="{D59B534C-A3D5-4BC0-980B-C5E2803EBCD8}"/>
-    <hyperlink ref="D24" r:id="rId22" xr:uid="{3630D46F-10C0-4C65-94F9-FAA3E38FD292}"/>
-    <hyperlink ref="D25" r:id="rId23" xr:uid="{25EFEB0C-1CC1-41D9-BD91-2068310D10E7}"/>
-    <hyperlink ref="D26" r:id="rId24" xr:uid="{F91DB822-D65A-447D-B933-24597B7A5BA1}"/>
-    <hyperlink ref="D27" r:id="rId25" xr:uid="{8DE635CF-F4BC-4B14-A9F4-84A3ECA4A6CB}"/>
-    <hyperlink ref="D28" r:id="rId26" xr:uid="{253C6B01-8FFF-41EB-9304-6133957AE0F5}"/>
-    <hyperlink ref="D29" r:id="rId27" xr:uid="{2B903600-6768-460E-A497-091282279BC7}"/>
-    <hyperlink ref="D11" r:id="rId28" xr:uid="{80D1A654-8BE8-4553-9448-8ABC212845AB}"/>
+    <hyperlink ref="E2" r:id="rId1" xr:uid="{5EDA0757-4A3C-46C0-ABB7-F8852D9DE124}"/>
+    <hyperlink ref="E3" r:id="rId2" xr:uid="{B3AAE01C-C272-45ED-BAA6-DDC4D33BED84}"/>
+    <hyperlink ref="E4" r:id="rId3" xr:uid="{7CA146F2-4D4B-486D-A63B-BDEF89510C06}"/>
+    <hyperlink ref="E16" r:id="rId4" xr:uid="{35D8DE4B-FD0D-4AD6-A1A1-14895D54664D}"/>
+    <hyperlink ref="E5" r:id="rId5" xr:uid="{10255793-2D3A-434E-A119-C6C8C320B22C}"/>
+    <hyperlink ref="E6" r:id="rId6" xr:uid="{0242B573-0B17-48BE-9FA3-40ADDB3B4D4C}"/>
+    <hyperlink ref="E7" r:id="rId7" xr:uid="{7F53B45B-9246-4533-BD67-80100FCB9703}"/>
+    <hyperlink ref="E8" r:id="rId8" xr:uid="{8668C052-7E4C-449A-9E12-CBF0B0BD2A34}"/>
+    <hyperlink ref="E9" r:id="rId9" xr:uid="{CCCF4893-EF8F-44A2-A57C-6B1B68394462}"/>
+    <hyperlink ref="E10" r:id="rId10" xr:uid="{777CD186-32AA-40D6-867F-C34705AC8C7D}"/>
+    <hyperlink ref="E12" r:id="rId11" xr:uid="{D7F5ADE8-6984-4513-9CA4-3FD1312FBC18}"/>
+    <hyperlink ref="E13" r:id="rId12" xr:uid="{E7F0E585-E18F-4AFE-AF5A-767CF01FBBE9}"/>
+    <hyperlink ref="E14" r:id="rId13" xr:uid="{9463C13A-5A5F-4965-BB15-4845102EB991}"/>
+    <hyperlink ref="E15" r:id="rId14" xr:uid="{B2290C3C-0ECF-4039-A7FD-FAE074C96130}"/>
+    <hyperlink ref="E17" r:id="rId15" xr:uid="{845CBCDB-57A5-4A96-B26F-02921B1182EC}"/>
+    <hyperlink ref="E18" r:id="rId16" xr:uid="{6DEF0B91-1D8A-4726-8BF6-69FDC3359BBA}"/>
+    <hyperlink ref="E19" r:id="rId17" xr:uid="{0A640D8F-3AFA-4EBC-8689-F177CA31C47E}"/>
+    <hyperlink ref="E20" r:id="rId18" xr:uid="{E8486996-9717-430D-A74C-D6689DC6AB5D}"/>
+    <hyperlink ref="E21" r:id="rId19" xr:uid="{AC9BB450-EB3F-40BE-903C-2C7BE5614257}"/>
+    <hyperlink ref="E22" r:id="rId20" xr:uid="{56AC765C-E1CF-4B24-AF97-9F31ECE8C69C}"/>
+    <hyperlink ref="E23" r:id="rId21" xr:uid="{D59B534C-A3D5-4BC0-980B-C5E2803EBCD8}"/>
+    <hyperlink ref="E24" r:id="rId22" xr:uid="{3630D46F-10C0-4C65-94F9-FAA3E38FD292}"/>
+    <hyperlink ref="E25" r:id="rId23" xr:uid="{25EFEB0C-1CC1-41D9-BD91-2068310D10E7}"/>
+    <hyperlink ref="E26" r:id="rId24" xr:uid="{F91DB822-D65A-447D-B933-24597B7A5BA1}"/>
+    <hyperlink ref="E27" r:id="rId25" xr:uid="{8DE635CF-F4BC-4B14-A9F4-84A3ECA4A6CB}"/>
+    <hyperlink ref="E28" r:id="rId26" xr:uid="{253C6B01-8FFF-41EB-9304-6133957AE0F5}"/>
+    <hyperlink ref="E29" r:id="rId27" xr:uid="{2B903600-6768-460E-A497-091282279BC7}"/>
+    <hyperlink ref="E11" r:id="rId28" xr:uid="{80D1A654-8BE8-4553-9448-8ABC212845AB}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
